--- a/data/trans_camb/P20_5_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P20_5_R-Edad-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-6,87</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-47,95</t>
+          <t>-3,5</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-33,09</t>
+          <t>-1,99</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-56,13; 44,69</t>
+          <t>-3,84; 3,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-74,86; -11,68</t>
+          <t>-8,49; 1,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-57,64; -0,84</t>
+          <t>-5,12; 1,06</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-11,13%</t>
+          <t>-21,13%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-59,39%</t>
+          <t>-52,39%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-45,22%</t>
+          <t>-41,75%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-75,04; 152,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-85,75; -17,99</t>
+          <t>-87,12; 50,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-72,48; -1,48</t>
+          <t>-76,57; 44,29</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,11</t>
+          <t>4,68</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,24</t>
+          <t>-4,39</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>0,28</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-20,02; 24,06</t>
+          <t>-5,82; 19,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-18,24; 8,3</t>
+          <t>-13,95; 6,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,2; 11,13</t>
+          <t>-6,9; 9,98</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>24,8%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-6,71%</t>
+          <t>-12,09%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-2,5%</t>
+          <t>1,02%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-33,6; 60,99</t>
+          <t>-29,22; 127,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-27,12; 14,28</t>
+          <t>-34,68; 20,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-23,02; 20,51</t>
+          <t>-22,96; 42,85</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-10,36</t>
+          <t>-12,09</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-12,65</t>
+          <t>-8,4</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-11,57</t>
+          <t>-10,16</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-22,19; 1,58</t>
+          <t>-21,1; -1,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-21,19; -4,32</t>
+          <t>-16,75; -1,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-19,16; -4,27</t>
+          <t>-16,41; -3,81</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-16,59%</t>
+          <t>-24,95%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-19,55%</t>
+          <t>-15,36%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-18,18%</t>
+          <t>-19,68%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-33,68; 2,66</t>
+          <t>-40,97; -3,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-31,86; -7,38</t>
+          <t>-28,87; -2,32</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-28,6; -6,72</t>
+          <t>-30,38; -8,05</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-9,57</t>
+          <t>-6,54</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-4,91</t>
+          <t>-4,73</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-7,21</t>
+          <t>-5,68</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-18,58; 0,13</t>
+          <t>-14,96; 2,84</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-12,65; 3,24</t>
+          <t>-12,1; 2,8</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-13,94; -1,27</t>
+          <t>-11,36; 0,76</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-15,4%</t>
+          <t>-12,67%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-7,57%</t>
+          <t>-8,4%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-11,34%</t>
+          <t>-10,5%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-28,23; -0,13</t>
+          <t>-26,7; 6,05</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-19,11; 5,16</t>
+          <t>-20,59; 5,29</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-20,8; -2,14</t>
+          <t>-20,25; 1,46</t>
         </is>
       </c>
     </row>
@@ -940,17 +940,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-10,43</t>
+          <t>-7,99</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-4,29</t>
+          <t>-2,1</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-20,51; 0,23</t>
+          <t>-18,24; 2,5</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-9,47; 9,22</t>
+          <t>-5,83; 12,29</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-11,14; 3,03</t>
+          <t>-8,65; 4,15</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-18,04%</t>
+          <t>-16,14%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-6,88%</t>
+          <t>-3,83%</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-32,35; 0,78</t>
+          <t>-32,92; 6,43</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-13,33; 14,87</t>
+          <t>-9,08; 22,26</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-16,88; 5,24</t>
+          <t>-14,99; 8,14</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-11,11</t>
+          <t>-10,52</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-14,36</t>
+          <t>-7,97</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-12,93</t>
+          <t>-9,1</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-21,59; 0,98</t>
+          <t>-19,99; 0,98</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-24,09; -4,22</t>
+          <t>-16,06; 1,38</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-20,17; -5,78</t>
+          <t>-16,74; -2,35</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1082,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-17,03%</t>
+          <t>-17,78%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-20,79%</t>
+          <t>-13,31%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-19,19%</t>
+          <t>-15,27%</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-31,28; 1,94</t>
+          <t>-32,03; 1,77</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-33,65; -6,44</t>
+          <t>-25,99; 2,34</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-29,28; -8,64</t>
+          <t>-26,31; -4,0</t>
         </is>
       </c>
     </row>
@@ -1132,17 +1132,17 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-8,98</t>
+          <t>-5,78</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-8,58</t>
+          <t>-5,01</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-8,77</t>
+          <t>-5,4</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-14,62; -3,63</t>
+          <t>-9,83; -1,6</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-12,5; -4,26</t>
+          <t>-8,9; -1,22</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-12,02; -5,26</t>
+          <t>-8,09; -2,16</t>
         </is>
       </c>
     </row>
@@ -1178,17 +1178,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-14,75%</t>
+          <t>-14,69%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-12,96%</t>
+          <t>-10,43%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-13,75%</t>
+          <t>-12,33%</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,24 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-23,08; -6,17</t>
+          <t>-23,93; -4,23</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-18,87; -6,72</t>
+          <t>-17,96; -2,63</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-18,39; -8,53</t>
+          <t>-18,03; -5,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P20_5_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P20_5_R-Edad-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,64</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-3,5</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-1,99</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-6.069062694597982</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-48.04122312256947</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-32.9053139667842</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-3,84; 3,76</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-8,49; 1,1</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-5,12; 1,06</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-58.04347108331843</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-77.22371350253614</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-59.29477689028998</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-21,13%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-52,39%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-41,75%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>42.51671144843409</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-16.84238568548109</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>-1.804785549896435</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-87,12; 50,06</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-76,57; 44,29</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-0.09839438301729393</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.5950002291667034</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.4496781496857667</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>4,68</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-4,39</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,28</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.7555495957124397</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.8683327860331055</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.7103224249541946</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-5,82; 19,51</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-13,95; 6,43</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-6,9; 9,98</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>1.325694431892324</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>-0.2523599830409687</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>-0.01155806909301512</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>24,8%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-12,09%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,02%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>1.355501674142479</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-5.417645290174821</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-2.961536150082167</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-29,22; 127,63</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-34,68; 20,14</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-22,96; 42,85</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-21.82116870937581</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-18.61398636414946</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-16.25414853062168</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-12,09</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-8,4</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-10,16</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>22.89541804608785</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>8.587049121975397</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>8.866565735295051</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-21,1; -1,29</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-16,75; -1,19</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-16,41; -3,81</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.02704019459302019</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.08561328677603103</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.05122634285909859</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-24,95%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-15,36%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-19,68%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.3935275972285448</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.2680949374357704</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.2564952701180898</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-40,97; -3,65</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-28,87; -2,32</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-30,38; -8,05</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.5696055332091164</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.1519544812601337</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.1702736242705411</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,287 +775,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-6,54</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-4,73</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-5,68</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-12.36937668633315</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-11.63279425919947</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-11.90673049984169</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-14,96; 2,84</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-12,1; 2,8</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-11,36; 0,76</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-24.66103105953205</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-20.94740213813613</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-19.18447690437536</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-12,67%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-8,4%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-10,5%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>0.3277281189233984</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>-3.432607533256594</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>-4.242880317297393</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-26,7; 6,05</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-20,59; 5,29</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-20,25; 1,46</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.1981914008627869</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.179825194953146</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.1871701756574818</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-7,99</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>3,32</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-2,1</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.367582616758236</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.3070129946464639</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.2897920287203511</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-18,24; 2,5</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-5,83; 12,29</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-8,65; 4,15</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.003668167349060785</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>-0.05494265398656989</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>-0.06923176461754073</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-16,14%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>5,53%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-3,83%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-9.647347720490739</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-4.956330493179828</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-7.27462338132272</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-32,92; 6,43</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-9,08; 22,26</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-14,99; 8,14</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-19.30171718790942</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-12.8361843112599</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-13.58405942978029</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-10,52</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-7,97</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-9,1</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>0.04930426820668055</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>2.927574114181856</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>-1.395000830490434</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-19,99; 0,98</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-16,06; 1,38</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-16,74; -2,35</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.1552577356495157</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.07646614594690461</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.1144315395217626</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-17,78%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-13,31%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-15,27%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.2854574292876758</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.1871648244941677</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.2047115713402366</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-32,03; 1,77</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-25,99; 2,34</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-26,31; -4,0</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.003573492353404531</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.04778963223693017</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>-0.020816117706816</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1130,93 +987,315 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>-5,78</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>-5,01</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>-5,4</t>
-        </is>
+      <c r="C28" s="5" t="n">
+        <v>-10.96886318249009</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>2.102899867212216</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>-4.073410713623982</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>-9,83; -1,6</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>-8,9; -1,22</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>-8,09; -2,16</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>-20.64941720076423</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>-6.218173900132598</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>-10.7983000799521</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>-14,69%</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>-10,43%</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>-12,33%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>-0.4308637525777493</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>10.88036728668368</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>2.84675292890817</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>-23,93; -4,23</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>-17,96; -2,63</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-18,03; -5,26</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>-0.1896599579874522</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>0.03148849692089951</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>-0.06530446195913223</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>-0.3446190786306154</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>-0.0874975901378215</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>-0.165974985879139</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="n">
+        <v>-0.01241660431611086</v>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>0.1773969991380958</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>0.04773760928257283</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>-11.1176724583635</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>-12.40467331346865</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>-11.83938230141918</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>-21.80880239776234</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>-22.00227487601747</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>-19.19298224977265</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>0.608768860504917</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>-2.705130731922963</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>-4.666188129615313</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="n">
+        <v>-0.1704934171259705</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>-0.1795632272898603</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>-0.1757081522470087</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C38" s="6" t="n">
+        <v>-0.3206598593754291</v>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>-0.3122620147924395</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>-0.2753541353406768</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C39" s="6" t="n">
+        <v>0.009771552520211118</v>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>-0.04400975511817989</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>-0.07261323611242641</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>-9.735880803889962</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>-7.852536333731496</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>-8.729085329802921</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>-14.93667077217108</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>-12.20676587482575</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>-12.07423883733973</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>-3.811301768499108</v>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>-3.846453877582512</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>-5.067679571309176</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="n">
+        <v>-0.1598867612691292</v>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>-0.1185876283083733</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>-0.1368830282252035</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C44" s="6" t="n">
+        <v>-0.2392321016669265</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>-0.1781133162187315</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>-0.1858395702597162</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C45" s="6" t="n">
+        <v>-0.06664857864645204</v>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>-0.06007668556112017</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>-0.08080693886640819</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1224,14 +1303,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
